--- a/com.sui.manager.controller/src/main/config/constants.xlsx
+++ b/com.sui.manager.controller/src/main/config/constants.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>客户状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,22 @@
   </si>
   <si>
     <t>猎头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,7 +504,7 @@
     <col min="6" max="6" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +523,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -527,8 +546,11 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -547,8 +569,11 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="D4" t="s">
         <v>14</v>
@@ -559,29 +584,32 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
     </row>
   </sheetData>

--- a/com.sui.manager.controller/src/main/config/constants.xlsx
+++ b/com.sui.manager.controller/src/main/config/constants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>客户状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,38 @@
   </si>
   <si>
     <t>人妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户满意度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,9 +534,10 @@
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +559,17 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -549,8 +591,17 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -572,8 +623,14 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="D4" t="s">
         <v>14</v>
@@ -588,28 +645,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
     </row>
   </sheetData>
